--- a/experiments/motion_report.xlsx
+++ b/experiments/motion_report.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t xml:space="preserve">Order</t>
   </si>
@@ -37,7 +37,10 @@
     <t xml:space="preserve">In Mosek 9.2</t>
   </si>
   <si>
-    <t xml:space="preserve">New Experiments</t>
+    <t xml:space="preserve">New Experiments (with half-circle unsafe set)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Experiments (with half-moon unsafe set)</t>
   </si>
   <si>
     <t xml:space="preserve">In Mosek 10.1</t>
@@ -51,7 +54,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -73,6 +76,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,12 +127,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -138,194 +156,449 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.6318</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.7956</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.4064</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.6726</v>
       </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.3406</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.6493</v>
       </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.3243</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.5922</v>
       </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>0.3046</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.5614</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="H10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="0" t="s">
+      <c r="A12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0.598384927095311</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>0.764255428301508</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="H13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>0.944226970192307</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>0.973582761629201</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0.394085345416586</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>0.668602556455678</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="H14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0.607208118181124</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>0.794295021499294</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>0.33712513822453</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0.648632985221628</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>0.480544565319415</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>0.709068646636578</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>0.323734971894205</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>0.590523349333228</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="H16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0.406805039147753</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>0.638998296415329</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>0.598384927095311</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>0.764255428301508</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>0.394085345416586</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>0.668602556455678</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>0.33712513822453</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>0.648632985221628</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>0.323734971894205</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>0.590523349333228</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="B17" s="3" t="n">
+        <v>0.302013107113011</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>0.557324707853187</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="H17" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>0.302013107113011</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>0.557324707853187</v>
-      </c>
-    </row>
+      <c r="I17" s="3" t="n">
+        <v>0.369570523000568</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>0.613212111886219</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>0.355995008274552</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>0.583397388695129</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/experiments/motion_report.xlsx
+++ b/experiments/motion_report.xlsx
@@ -79,7 +79,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -270,7 +269,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -290,6 +289,11 @@
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -304,6 +308,11 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -320,6 +329,11 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -334,6 +348,11 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -348,6 +367,11 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -362,6 +386,11 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -376,6 +405,11 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
@@ -384,6 +418,11 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
@@ -392,6 +431,11 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -402,6 +446,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
         <v>6</v>
       </c>
@@ -424,6 +469,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,6 +498,7 @@
       <c r="F12" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="1" t="n">
         <v>1</v>
       </c>
@@ -476,6 +523,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="1" t="n">
         <v>2</v>
       </c>
@@ -500,6 +548,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="1" t="n">
         <v>3</v>
       </c>
@@ -524,6 +573,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="1" t="n">
         <v>4</v>
       </c>
@@ -548,6 +598,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="1" t="n">
         <v>5</v>
       </c>
@@ -572,6 +623,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="1" t="n">
         <v>6</v>
       </c>
@@ -584,6 +636,13 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="1" t="n">
         <v>7</v>
       </c>
@@ -593,6 +652,7 @@
       <c r="J18" s="2" t="n">
         <v>0.583397388695129</v>
       </c>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
